--- a/Table1.xlsx
+++ b/Table1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Peripheral Edema</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>Ask</t>
+  </si>
+  <si>
+    <t>Vasopressor</t>
+  </si>
+  <si>
+    <t>ICU SERVICE</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>CSRU</t>
+  </si>
+  <si>
+    <t>FICU</t>
+  </si>
+  <si>
+    <t>MICU</t>
+  </si>
+  <si>
+    <t>SICU</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MV</t>
   </si>
 </sst>
 </file>
@@ -408,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,6 +552,97 @@
       </c>
       <c r="D9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>39.86</v>
+      </c>
+      <c r="C10">
+        <v>32.31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>18.59</v>
+      </c>
+      <c r="C12">
+        <v>17.39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>19.82</v>
+      </c>
+      <c r="C13">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.95</v>
+      </c>
+      <c r="C14">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>48.54</v>
+      </c>
+      <c r="C15">
+        <v>35.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>12.09</v>
+      </c>
+      <c r="C16">
+        <v>24.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>51.6</v>
+      </c>
+      <c r="C17">
+        <v>47.86</v>
+      </c>
+      <c r="D17">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
   </sheetData>
